--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf2-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf2-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -534,46 +534,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6462393333333334</v>
+        <v>0.1636683333333333</v>
       </c>
       <c r="H2">
-        <v>1.938718</v>
+        <v>0.491005</v>
       </c>
       <c r="I2">
-        <v>0.03461850536298827</v>
+        <v>0.008639493057305454</v>
       </c>
       <c r="J2">
-        <v>0.03461850536298828</v>
+        <v>0.008639493057305455</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.5555316666666666</v>
+        <v>0.1817723333333333</v>
       </c>
       <c r="N2">
-        <v>1.666595</v>
+        <v>0.5453170000000001</v>
       </c>
       <c r="O2">
-        <v>0.01938483203642842</v>
+        <v>0.008966262009224884</v>
       </c>
       <c r="P2">
-        <v>0.01938483203642843</v>
+        <v>0.008966262009224884</v>
       </c>
       <c r="Q2">
-        <v>0.3590064139122223</v>
+        <v>0.02975037484277778</v>
       </c>
       <c r="R2">
-        <v>3.23105772521</v>
+        <v>0.2677533735850001</v>
       </c>
       <c r="S2">
-        <v>0.0006710739118137242</v>
+        <v>7.746395837868003E-05</v>
       </c>
       <c r="T2">
-        <v>0.0006710739118137246</v>
+        <v>7.746395837868005E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -596,51 +596,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6462393333333334</v>
+        <v>0.1636683333333333</v>
       </c>
       <c r="H3">
-        <v>1.938718</v>
+        <v>0.491005</v>
       </c>
       <c r="I3">
-        <v>0.03461850536298827</v>
+        <v>0.008639493057305454</v>
       </c>
       <c r="J3">
-        <v>0.03461850536298828</v>
+        <v>0.008639493057305455</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.1817723333333333</v>
+        <v>20.09115</v>
       </c>
       <c r="N3">
-        <v>0.5453170000000001</v>
+        <v>60.27345</v>
       </c>
       <c r="O3">
-        <v>0.006342799811357313</v>
+        <v>0.9910337379907751</v>
       </c>
       <c r="P3">
-        <v>0.006342799811357313</v>
+        <v>0.9910337379907752</v>
       </c>
       <c r="Q3">
-        <v>0.1174684315117778</v>
+        <v>3.28828503525</v>
       </c>
       <c r="R3">
-        <v>1.057215883606</v>
+        <v>29.59456531725</v>
       </c>
       <c r="S3">
-        <v>0.0002195782492858341</v>
+        <v>0.008562029098926774</v>
       </c>
       <c r="T3">
-        <v>0.0002195782492858342</v>
+        <v>0.008562029098926775</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>15.322826</v>
+      </c>
+      <c r="H4">
+        <v>45.968478</v>
+      </c>
+      <c r="I4">
+        <v>0.808839719627903</v>
+      </c>
+      <c r="J4">
+        <v>0.8088397196279031</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>0.6462393333333334</v>
-      </c>
-      <c r="H4">
-        <v>1.938718</v>
-      </c>
-      <c r="I4">
-        <v>0.03461850536298827</v>
-      </c>
-      <c r="J4">
-        <v>0.03461850536298828</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>27.92075533333333</v>
+        <v>0.1817723333333333</v>
       </c>
       <c r="N4">
-        <v>83.762266</v>
+        <v>0.5453170000000001</v>
       </c>
       <c r="O4">
-        <v>0.9742723681522142</v>
+        <v>0.008966262009224884</v>
       </c>
       <c r="P4">
-        <v>0.9742723681522143</v>
+        <v>0.008966262009224884</v>
       </c>
       <c r="Q4">
-        <v>18.04349031277644</v>
+        <v>2.785265835280667</v>
       </c>
       <c r="R4">
-        <v>162.391412814988</v>
+        <v>25.06739251752601</v>
       </c>
       <c r="S4">
-        <v>0.03372785320188871</v>
+        <v>0.007252268849651773</v>
       </c>
       <c r="T4">
-        <v>0.03372785320188872</v>
+        <v>0.007252268849651774</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>45.968478</v>
       </c>
       <c r="I5">
-        <v>0.8208310864042158</v>
+        <v>0.808839719627903</v>
       </c>
       <c r="J5">
-        <v>0.8208310864042159</v>
+        <v>0.8088397196279031</v>
       </c>
       <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.5555316666666666</v>
+        <v>20.09115</v>
       </c>
       <c r="N5">
-        <v>1.666595</v>
+        <v>60.27345</v>
       </c>
       <c r="O5">
-        <v>0.01938483203642842</v>
+        <v>0.9910337379907751</v>
       </c>
       <c r="P5">
-        <v>0.01938483203642843</v>
+        <v>0.9910337379907752</v>
       </c>
       <c r="Q5">
-        <v>8.512315065823332</v>
+        <v>307.8531955899</v>
       </c>
       <c r="R5">
-        <v>76.61083559241</v>
+        <v>2770.6787603091</v>
       </c>
       <c r="S5">
-        <v>0.01591167274022479</v>
+        <v>0.8015874507782512</v>
       </c>
       <c r="T5">
-        <v>0.01591167274022479</v>
+        <v>0.8015874507782514</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.322826</v>
+        <v>3.457711333333334</v>
       </c>
       <c r="H6">
-        <v>45.968478</v>
+        <v>10.373134</v>
       </c>
       <c r="I6">
-        <v>0.8208310864042158</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="J6">
-        <v>0.8208310864042159</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,27 +806,27 @@
         <v>0.5453170000000001</v>
       </c>
       <c r="O6">
-        <v>0.006342799811357313</v>
+        <v>0.008966262009224884</v>
       </c>
       <c r="P6">
-        <v>0.006342799811357313</v>
+        <v>0.008966262009224884</v>
       </c>
       <c r="Q6">
-        <v>2.785265835280667</v>
+        <v>0.6285162570531112</v>
       </c>
       <c r="R6">
-        <v>25.067392517526</v>
+        <v>5.656646313478</v>
       </c>
       <c r="S6">
-        <v>0.005206367260000878</v>
+        <v>0.001636529201194429</v>
       </c>
       <c r="T6">
-        <v>0.005206367260000879</v>
+        <v>0.001636529201194429</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.322826</v>
+        <v>3.457711333333334</v>
       </c>
       <c r="H7">
-        <v>45.968478</v>
+        <v>10.373134</v>
       </c>
       <c r="I7">
-        <v>0.8208310864042158</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="J7">
-        <v>0.8208310864042159</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.92075533333333</v>
+        <v>20.09115</v>
       </c>
       <c r="N7">
-        <v>83.762266</v>
+        <v>60.27345</v>
       </c>
       <c r="O7">
-        <v>0.9742723681522142</v>
+        <v>0.9910337379907751</v>
       </c>
       <c r="P7">
-        <v>0.9742723681522143</v>
+        <v>0.9910337379907752</v>
       </c>
       <c r="Q7">
-        <v>427.8248757612386</v>
+        <v>69.4693970547</v>
       </c>
       <c r="R7">
-        <v>3850.423881851148</v>
+        <v>625.2245734923</v>
       </c>
       <c r="S7">
-        <v>0.79971304640399</v>
+        <v>0.180884258113597</v>
       </c>
       <c r="T7">
-        <v>0.7997130464039902</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>2.698388</v>
-      </c>
-      <c r="H8">
-        <v>8.095164</v>
-      </c>
-      <c r="I8">
-        <v>0.1445504082327959</v>
-      </c>
-      <c r="J8">
-        <v>0.1445504082327959</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.5555316666666666</v>
-      </c>
-      <c r="N8">
-        <v>1.666595</v>
-      </c>
-      <c r="O8">
-        <v>0.01938483203642842</v>
-      </c>
-      <c r="P8">
-        <v>0.01938483203642843</v>
-      </c>
-      <c r="Q8">
-        <v>1.499039982953333</v>
-      </c>
-      <c r="R8">
-        <v>13.49135984658</v>
-      </c>
-      <c r="S8">
-        <v>0.002802085384389909</v>
-      </c>
-      <c r="T8">
-        <v>0.00280208538438991</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2.698388</v>
-      </c>
-      <c r="H9">
-        <v>8.095164</v>
-      </c>
-      <c r="I9">
-        <v>0.1445504082327959</v>
-      </c>
-      <c r="J9">
-        <v>0.1445504082327959</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.1817723333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.5453170000000001</v>
-      </c>
-      <c r="O9">
-        <v>0.006342799811357313</v>
-      </c>
-      <c r="P9">
-        <v>0.006342799811357313</v>
-      </c>
-      <c r="Q9">
-        <v>0.4904922829986667</v>
-      </c>
-      <c r="R9">
-        <v>4.414430546988001</v>
-      </c>
-      <c r="S9">
-        <v>0.0009168543020706002</v>
-      </c>
-      <c r="T9">
-        <v>0.0009168543020706006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>2.698388</v>
-      </c>
-      <c r="H10">
-        <v>8.095164</v>
-      </c>
-      <c r="I10">
-        <v>0.1445504082327959</v>
-      </c>
-      <c r="J10">
-        <v>0.1445504082327959</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>27.92075533333333</v>
-      </c>
-      <c r="N10">
-        <v>83.762266</v>
-      </c>
-      <c r="O10">
-        <v>0.9742723681522142</v>
-      </c>
-      <c r="P10">
-        <v>0.9742723681522143</v>
-      </c>
-      <c r="Q10">
-        <v>75.34103114240267</v>
-      </c>
-      <c r="R10">
-        <v>678.0692802816241</v>
-      </c>
-      <c r="S10">
-        <v>0.1408314685463354</v>
-      </c>
-      <c r="T10">
-        <v>0.1408314685463354</v>
+        <v>0.180884258113597</v>
       </c>
     </row>
   </sheetData>
